--- a/data/trans_camb/P16B13-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-49,7; 11,64</t>
+          <t>-50,76; 9,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 27,9</t>
+          <t>-21,99; 24,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 0,0</t>
+          <t>-28,53; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 0,0</t>
+          <t>-39,87; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 8,94</t>
+          <t>-28,35; 12,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 17,75</t>
+          <t>-17,99; 19,64</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,83; 12,52</t>
+          <t>-55,92; 7,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 38,72</t>
+          <t>-23,21; 33,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 0,0</t>
+          <t>-28,53; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 0,0</t>
+          <t>-39,87; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 10,23</t>
+          <t>-29,29; 16,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 21,09</t>
+          <t>-18,93; 24,91</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,99</t>
+          <t>0,0; 50,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 42,64</t>
+          <t>-9,6; 42,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,07</t>
+          <t>0,0; 28,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 25,41</t>
+          <t>-5,11; 24,55</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 104,01</t>
+          <t>0,0; 103,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 74,36</t>
+          <t>-10,65; 75,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,01</t>
+          <t>0,0; 40,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 34,29</t>
+          <t>-5,55; 33,57</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 0,0</t>
+          <t>-23,16; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 0,0</t>
+          <t>-53,54; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 0,0</t>
+          <t>-33,88; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-46,31; 0,0</t>
+          <t>-43,78; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 0,0</t>
+          <t>-16,59; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,28; -3,79</t>
+          <t>-40,02; -3,86</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 0,0</t>
+          <t>-23,16; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 0,0</t>
+          <t>-53,54; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 0,0</t>
+          <t>-33,88; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,31; 0,0</t>
+          <t>-43,78; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 0,0</t>
+          <t>-16,59; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,28; -3,79</t>
+          <t>-40,02; -3,86</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 9,01</t>
+          <t>-9,04; 11,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,44</t>
+          <t>0,0; 17,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 0,0</t>
+          <t>-15,57; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 4,89</t>
+          <t>-7,55; 6,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,06</t>
+          <t>0,0; 12,1</t>
         </is>
       </c>
     </row>
@@ -1183,17 +1183,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 10,36</t>
+          <t>-9,15; 13,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,6</t>
+          <t>0,0; 20,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 0,0</t>
+          <t>-15,57; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 5,25</t>
+          <t>-7,6; 6,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,71</t>
+          <t>0,0; 13,77</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 0,0</t>
+          <t>-16,11; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,25</t>
+          <t>0,0; 30,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 17,01</t>
+          <t>-9,69; 18,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 17,88</t>
+          <t>-2,03; 14,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 11,94</t>
+          <t>-4,71; 12,83</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 0,0</t>
+          <t>-16,11; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,88</t>
+          <t>0,0; 43,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 20,2</t>
+          <t>-9,76; 23,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 21,77</t>
+          <t>-2,03; 16,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 13,46</t>
+          <t>-4,71; 14,46</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,6; 15,23</t>
+          <t>1,56; 12,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,6; 15,23</t>
+          <t>1,57; 12,12</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,51; 12,3</t>
+          <t>1,53; 13,03</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,52; 13,03</t>
+          <t>1,53; 12,21</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1,62; 17,97</t>
+          <t>1,59; 13,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,63; 17,97</t>
+          <t>1,6; 13,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,53; 14,03</t>
+          <t>1,56; 14,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,55; 14,98</t>
+          <t>1,55; 13,91</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 2,91</t>
+          <t>-10,89; 3,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 5,18</t>
+          <t>-9,74; 5,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 8,43</t>
+          <t>-0,3; 7,73</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 6,75</t>
+          <t>-2,55; 6,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 4,1</t>
+          <t>-3,36; 4,18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 4,54</t>
+          <t>-3,92; 4,26</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 3,04</t>
+          <t>-11,19; 3,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 5,44</t>
+          <t>-10,05; 5,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 9,27</t>
+          <t>-0,29; 8,49</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 7,42</t>
+          <t>-2,59; 7,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 4,43</t>
+          <t>-3,46; 4,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 4,86</t>
+          <t>-4,04; 4,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B13-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
